--- a/cms/language/道具翻译需求.xlsx
+++ b/cms/language/道具翻译需求.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1660" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="225" windowWidth="27765" windowHeight="11505" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="道具" sheetId="1" r:id="rId2"/>
-    <sheet name="装备" sheetId="3" r:id="rId3"/>
+    <sheet name="装备" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="新增货币" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="287">
   <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -56,10 +52,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>血魄石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Blood Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -68,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>锆石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Vitality Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -80,10 +68,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>琥珀石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sage Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -92,10 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天青石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Bastion Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -104,10 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>灰石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Haste Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -116,10 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>绿叶石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mending Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -128,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>恶魔石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Volatile Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Source Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -156,10 +120,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>太阳石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Morbid Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -252,10 +212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>黒木钥匙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Deadwood Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -272,18 +228,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Rusted Chest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>黑铁钥匙</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Rusted Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以用来开启[黑铁宝箱]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -332,10 +280,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>可以用来开启[黄金宝箱]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Used to open a Golden Strongbox.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -360,10 +304,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抽奖券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Lucky Draw Ticket</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -432,10 +372,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>活力饼干(小)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Energy Cookies(Small)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -452,10 +388,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>活力饼干(中)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Energy Cookies(Medium)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -464,10 +396,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>活力饼干(大)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Energy Cookies(Large)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -480,10 +408,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>初级装备强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Basic Upgrade Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -500,10 +424,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中级装备强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Standard Upgrade Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -512,10 +432,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>高级装备强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Superior Upgrade Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -524,10 +440,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>装备进阶石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Advancement Stone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -539,10 +451,6 @@
     <t>装备进阶材料2</t>
   </si>
   <si>
-    <t>装备进阶卷轴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Advancement Scroll</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -599,10 +507,6 @@
   </si>
   <si>
     <t>装备进阶材料2碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶卷轴碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -971,42 +875,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>宝石镶嵌 提高体力XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高力量XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高智力XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高防御XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高速度XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高受治疗加成XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高暴击率XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高前置能量XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高暴击伤害XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目录</t>
     <rPh sb="0" eb="1">
       <t>mu'lu</t>
@@ -1091,12 +959,288 @@
     <t>kathy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>生命纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈炎纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星之纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日之纹章</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着火炎之力的纹章，镶嵌在装备上可以提高X力量。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着生命之力的纹章，镶嵌在装备上可以提高X生命。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着海洋之力的纹章，镶嵌在装备上可以提高x智力。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着大地之力的纹章，镶嵌在装备上可以提高x防御。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着疾风之力的纹章，镶嵌在装备上可以提高x速度。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着森林之力的纹章，镶嵌在装备上可以提高x治疗加成。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着月亮之力的纹章，镶嵌在装备上可以提高x暴击。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着繁星之力的纹章，镶嵌在装备上可以提高x前置能量。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄宿着太阳之力的纹章，镶嵌在装备上可以提高x暴击伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级信仰之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级信仰之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级信仰之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级布道书</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级布道书</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级布道书</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者墨水</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>化形之书</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤之书(月)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤之书(日)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级灵铁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级灵铁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级灵铁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力结晶</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之羽碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一袋苹果（中）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一筐苹果(大)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果(小)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险者宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之羽LV1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质钥匙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒木钥匙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队领袖宝箱LV1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔碎片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会贡献</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会集体获得的货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会玩法获得的货币，可通过公会商店购买物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场货币，可通过竞技场商店购买商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔玩法获得的货币，可通过通天塔商店购买商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评定玩家竞技场名次和段位的积分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币和解释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人贡献</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会贡献</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技积分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过竞技场获得的宝箱，内有丰富奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过大冒险获得的宝箱，内有丰富奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务发给队长的宝箱，内有丰富奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,13 +1291,33 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1184,7 +1348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1197,17 +1361,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1478,7 +1651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1488,142 +1661,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1637,24 +1810,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G46"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1674,755 +1847,773 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="7" t="s">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
+      <c r="E11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="D18" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="1" t="s">
+      <c r="D20" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="1" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="1" t="s">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="1" t="s">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+      <c r="C32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="D32" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="D33" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="1" t="s">
+      <c r="D34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="1" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
+      <c r="D38" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="D39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D40" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="1" t="s">
+      <c r="D42" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D44" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="D45" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D46" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D47" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="F47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="G47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="4" t="s">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D48" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="4" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D49" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="4" t="s">
+      <c r="G49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="4" t="s">
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="D50" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="4" t="s">
+      <c r="F50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="G50" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B14:B36"/>
-    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B14:B40"/>
+    <mergeCell ref="B42:B49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,16 +2628,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2466,438 +2657,438 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2907,4 +3098,117 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cms/language/道具翻译需求.xlsx
+++ b/cms/language/道具翻译需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="225" windowWidth="27765" windowHeight="11505" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="225" windowWidth="27765" windowHeight="10980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="244">
   <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -52,82 +52,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Blood Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase STA by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vitality Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase STR by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sage Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase INT by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bastion Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase DEF by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haste Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase SPD by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mending Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase Heal bonus by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volatile Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase Crit Rate by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase start PWR by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴伤宝石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Morbid Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed to increase Crit DMG by XX.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,10 +64,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Small EXP Potion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物经验提升 XX点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,26 +76,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Medium EXP Potion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>大经验药水</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Large EXP Potion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>普通经验卷轴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Normal EXP Scroll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Increases a monster's EXP rate by XX%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,10 +92,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Great EXP Scroll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物经验XX%倍率获得提升</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,10 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Boundless EXP Scroll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>木质宝箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -280,10 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Used to open a Golden Strongbox.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>扫荡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -304,18 +204,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Lucky Draw Ticket</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以代替一次抽奖消耗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Used for a chance in the Lucky Draw.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>万能碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,18 +212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Core Fragments</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的万能碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The legendary Core Fragment!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>妖兽的晶核</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -372,34 +248,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Energy Cookies(Small)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复人物活力值道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A tasty cookie... Good for Energy!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活力值道具(30)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Energy Cookies(Medium)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>活力值道具(60)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Energy Cookies(Large)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -408,118 +264,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Basic Upgrade Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Used for equipment upgrades.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中级装备强化材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Standard Upgrade Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>高级装备强化材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Superior Upgrade Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>装备进阶材料1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Advancement Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>装备进阶材料2</t>
   </si>
   <si>
-    <t>Advancement Scroll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石开孔材料</t>
   </si>
   <si>
-    <t>宝石开孔石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem Socketing Chisel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌孔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Used for opening Gem Sockets.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物强化石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monster Upgrade Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物强化材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monster upgrade material.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物进阶石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monster Advancement Stone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物进阶材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monster advancement material.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>装备进阶材料2碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Advancement Scroll Fragment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以合成装备进阶卷轴</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Used to combine into an Advancement Scroll.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
@@ -1234,6 +1018,50 @@
   <si>
     <t>公会任务发给队长的宝箱，内有丰富奖励</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以代替一次金币召唤消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以代替一次钻石召唤消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的万能碎片，可以替代宠物碎片进行合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备打造的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备打造的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化打造的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化打造的材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹章开孔石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹章开孔道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复人物X活力值道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复人物X活力值道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1365,12 +1193,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1202,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1651,7 +1479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1673,44 +1501,44 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="10" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -1812,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1848,765 +1676,654 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="7" t="s">
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="7" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="7" t="s">
+      <c r="D28" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="D33" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="16" t="s">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="17"/>
+      <c r="C47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D48" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="1" t="s">
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="17"/>
+      <c r="C49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="D49" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="D33" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
-      <c r="C38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
-      <c r="C40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="13"/>
-      <c r="C45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="13"/>
-      <c r="C46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="13"/>
-      <c r="C48" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="13"/>
       <c r="F50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2658,437 +2375,437 @@
       </c>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="4" t="s">
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="4" t="s">
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="4" t="s">
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="4" t="s">
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="4" t="s">
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +2822,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3116,12 +2833,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3142,69 +2859,69 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
-        <v>264</v>
+      <c r="C4" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>265</v>
+      <c r="C6" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>266</v>
+      <c r="C7" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
-        <v>267</v>
+      <c r="C9" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/cms/language/道具翻译需求.xlsx
+++ b/cms/language/道具翻译需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="225" windowWidth="27765" windowHeight="10980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1425" yWindow="-270" windowWidth="34740" windowHeight="11910" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="325">
   <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -104,30 +104,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Deadwood Chest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏自然产出的宝箱,开启获得产出物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A chest produced by the game. Open it to receive its contents.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadwood Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以用来开启[木质宝箱]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Used to open a Deadwood Chest.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>黑铁宝箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,26 +124,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Used to open a Rusted Chest.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>白银宝箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gleaming Chest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>白银钥匙</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gleaming Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以用来开启[白银宝箱]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -172,34 +144,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Golden Strongbox</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金钥匙</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Golden Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>扫荡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Raid Ticket</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>扫荡副本的凭证</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Voucher used to pass a stage battle.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抽奖替代券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -216,31 +172,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Wicked Crux</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>还是拿去换钱好些</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Might be a good idea to sell this one…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>妖兽的皮毛</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Wicked Pelt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>妖兽的指甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wicked Nails</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -624,7 +564,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>倍率获得提升</t>
     </r>
@@ -872,10 +813,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>天使之羽碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>一袋苹果（中）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -908,10 +845,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天使之羽LV1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>木质宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1062,6 +995,410 @@
   <si>
     <t>恢复人物X活力值道具</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年03月17日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabe翻译：道具&amp;货币翻译需求</t>
+    <rPh sb="4" eb="5">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo'bi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ember Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun Insignia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Power of Faith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Power of Faith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Power of Faith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Zealot Tome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Zealot Tome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Zealot Tome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Chest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleaming Chest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleaming Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Strongbox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal Chest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventurer's Chest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Leader Chest Lv. 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raid Ticket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summoning Tome (Dawn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summoning Tome (Dusk)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soul Origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Crux</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Pelt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Nails</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple (small)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag of Apples (medium)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basket of Apples (big)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Raw Iron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Raw Iron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pure Raw Iron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insignia Stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sage's Ink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book of Transformation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of life. Embed into a piece of Equipment to increase HP by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of fire. Embed into a piece of Equipment to increase STR by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the seas Embed into a piece of Equipment to increase INT by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the Earth. Embed into a piece of Equipment to increase DEF by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the wind. Embed into a piece of Equipment to increase SPD by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the forest. Embed into a piece of Equipment to increase Healing by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the moon. Embed into a piece of Equipment to increase Crit by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the stars. Embed into a piece of Equipment to increase starting Power by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Insignia containing the power of the sun. Embed into a piece of Equipment to increase Crit DMG by X.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A chest produced by the game. Open it to receive its contents.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to open a Deadwood Chest.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to open a Rusted Chest.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest filled with rewards available via the Arena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest filled with rewards available via Adventure Mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest filled with rewards sent to Squad Leaders from Guild Missions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voucher used to pass a stage battle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can be used for one Coin Summoning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can be used for one Diamond Summoning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The legendary Soul Origin, can be used instead of Monster Fragments for Combination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Might be a good idea to sell this one…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use to restore X Energy to your character</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment forge material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment strengthening material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use to open Insignia sockets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster strengthening material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster advancement material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancement scroll used for combining Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency obtained from Tower of Trials, use to purchase items in the Tower Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency obtained by Guild members, use to purchase items in the Guild Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Collective Guild currency </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency obtained from the Arena, use to purchase items in the Arena Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Points granted to players based upon their ranking and tier level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player Energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal Fragments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personal Contribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild Contribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honor Points</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arena Points</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力晶核LV1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力晶核碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵之羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡品C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使的羽翼，光明的气息，可交给公会完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的羽翼，黑暗的气息，可交给公会完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵的羽翼，自然的气息，可交给公会完成任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据公会任务需求新增道具和翻译调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demon's feather</t>
+  </si>
+  <si>
+    <t>Angel's feather</t>
+  </si>
+  <si>
+    <t>Fairy's feather.</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1438,8 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1176,19 +1514,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1197,13 +1530,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1479,7 +1824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1489,142 +1834,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>154</v>
+      <c r="B3" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>155</v>
+      <c r="B4" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>156</v>
+      <c r="B5" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
-        <v>157</v>
+      <c r="B14" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>160</v>
+      <c r="B15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>163</v>
+      <c r="B16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="18">
+        <v>42446</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1638,699 +1995,898 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G50"/>
+  <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="2"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="4" t="s">
+      <c r="G10" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="21"/>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="D33" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="21"/>
+      <c r="C43" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="21"/>
+      <c r="C44" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="21"/>
+      <c r="C48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="21"/>
+      <c r="C49" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="C31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="D33" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
-      <c r="C35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="1" t="s">
+      <c r="E49" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="G49" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="21"/>
+      <c r="C50" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
-      <c r="C38" s="1" t="s">
+      <c r="D50" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
-      <c r="C39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
-      <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
-      <c r="C43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
-      <c r="C44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
-      <c r="C45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="17"/>
-      <c r="C46" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
-      <c r="C47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="17"/>
-      <c r="C48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="17"/>
-      <c r="C49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="G50" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="21"/>
+      <c r="C51" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="21"/>
+      <c r="C52" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="21"/>
+      <c r="C53" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B14:B40"/>
-    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B42:B53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2345,7 +2901,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -2354,458 +2910,458 @@
     <col min="7" max="7" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="4" t="s">
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="4" t="s">
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="4" t="s">
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="4" t="s">
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="4" t="s">
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="4" t="s">
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="4" t="s">
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="4" t="s">
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="4" t="s">
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="4" t="s">
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="4" t="s">
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="4" t="s">
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="4" t="s">
+      <c r="F24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="4" t="s">
+      <c r="F25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2822,106 +3378,143 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" t="s">
-        <v>227</v>
+      <c r="E9" t="s">
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>197</v>
+      </c>
+      <c r="G9" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/cms/language/道具翻译需求.xlsx
+++ b/cms/language/道具翻译需求.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="-270" windowWidth="34740" windowHeight="11910" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5040" yWindow="500" windowWidth="34740" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="装备" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="新增货币" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="331">
   <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1399,6 +1404,42 @@
   </si>
   <si>
     <t>Fairy's feather.</t>
+  </si>
+  <si>
+    <t>2016年03月21日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabe翻译：新增道具需求</t>
+    <rPh sb="4" eb="5">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal Ball Core Lv 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A feather from an Angel, bright and radiant. You can turn it in to the Guild to complete a quest.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A feather from an Demon, dark and mysterious. You can turn it in to the Guild to complete a quest.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A feather from an Fairy, natural and light. You can turn it in to the Guild to complete a quest.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1824,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1834,37 +1875,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>143</v>
       </c>
@@ -1875,7 +1916,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>146</v>
       </c>
@@ -1886,7 +1927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>227</v>
       </c>
@@ -1897,9 +1938,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
-        <v>42446</v>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>320</v>
@@ -1908,77 +1949,83 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1997,22 +2044,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="2"/>
+    <col min="1" max="2" width="8.83203125" style="2"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="2"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
@@ -2052,7 +2099,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="14" t="s">
         <v>132</v>
@@ -2070,7 +2117,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="14" t="s">
         <v>133</v>
@@ -2088,7 +2135,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="14" t="s">
         <v>134</v>
@@ -2106,7 +2153,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
         <v>135</v>
@@ -2124,7 +2171,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>136</v>
@@ -2142,7 +2189,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
         <v>137</v>
@@ -2160,7 +2207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="14" t="s">
         <v>138</v>
@@ -2178,7 +2225,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="14" t="s">
         <v>7</v>
@@ -2196,10 +2243,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2237,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -2255,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -2273,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -2291,7 +2338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2309,7 +2356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -2327,7 +2374,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>191</v>
@@ -2345,7 +2392,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -2363,7 +2410,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -2381,7 +2428,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -2399,7 +2446,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
         <v>26</v>
@@ -2417,7 +2464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="C26" s="2" t="s">
         <v>186</v>
@@ -2435,7 +2482,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>187</v>
@@ -2453,7 +2500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>188</v>
@@ -2471,13 +2518,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>31</v>
@@ -2495,7 +2542,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -2513,7 +2560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="D33" s="16" t="s">
         <v>175</v>
@@ -2528,7 +2575,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>34</v>
@@ -2546,7 +2593,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
         <v>36</v>
@@ -2564,7 +2611,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>38</v>
@@ -2582,7 +2629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>39</v>
@@ -2600,7 +2647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
       <c r="C38" s="2" t="s">
         <v>40</v>
@@ -2618,7 +2665,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="2" t="s">
         <v>41</v>
@@ -2636,7 +2683,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="2" t="s">
         <v>42</v>
@@ -2654,7 +2701,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
         <v>43</v>
       </c>
@@ -2674,7 +2721,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
       <c r="C43" s="16" t="s">
         <v>45</v>
@@ -2692,7 +2739,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
       <c r="C44" s="16" t="s">
         <v>46</v>
@@ -2710,7 +2757,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
       <c r="C45" s="16" t="s">
         <v>47</v>
@@ -2728,7 +2775,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
       <c r="C46" s="16" t="s">
         <v>48</v>
@@ -2736,7 +2783,9 @@
       <c r="D46" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>222</v>
       </c>
@@ -2744,7 +2793,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
       <c r="C47" s="16" t="s">
         <v>49</v>
@@ -2762,7 +2811,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="21"/>
       <c r="C48" s="16" t="s">
         <v>50</v>
@@ -2780,7 +2829,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="21"/>
       <c r="C49" s="16" t="s">
         <v>52</v>
@@ -2798,7 +2847,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="21"/>
       <c r="C50" s="16" t="s">
         <v>54</v>
@@ -2814,7 +2863,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="21"/>
       <c r="C51" s="16" t="s">
         <v>314</v>
@@ -2828,8 +2877,11 @@
       <c r="F51" s="10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="21"/>
       <c r="C52" s="16" t="s">
         <v>315</v>
@@ -2843,9 +2895,11 @@
       <c r="F52" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="21"/>
       <c r="C53" s="16" t="s">
         <v>316</v>
@@ -2859,27 +2913,29 @@
       <c r="F53" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G60" s="12"/>
     </row>
   </sheetData>
@@ -2901,16 +2957,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
@@ -2950,7 +3006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -2968,7 +3024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
@@ -2986,7 +3042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>68</v>
@@ -3004,7 +3060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="3" t="s">
         <v>71</v>
@@ -3022,7 +3078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="3" t="s">
         <v>74</v>
@@ -3040,7 +3096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
         <v>77</v>
@@ -3058,7 +3114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>80</v>
@@ -3076,7 +3132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>83</v>
@@ -3094,7 +3150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="3" t="s">
         <v>86</v>
@@ -3112,7 +3168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="3" t="s">
         <v>89</v>
@@ -3130,7 +3186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>92</v>
@@ -3148,7 +3204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="3" t="s">
         <v>95</v>
@@ -3166,7 +3222,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
         <v>98</v>
@@ -3184,7 +3240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="3" t="s">
         <v>101</v>
@@ -3202,7 +3258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>104</v>
@@ -3220,7 +3276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="3" t="s">
         <v>107</v>
@@ -3238,7 +3294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="3" t="s">
         <v>110</v>
@@ -3256,7 +3312,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>113</v>
@@ -3274,7 +3330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
         <v>116</v>
@@ -3292,7 +3348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
         <v>119</v>
@@ -3310,7 +3366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="3" t="s">
         <v>122</v>
@@ -3328,7 +3384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="3" t="s">
         <v>125</v>
@@ -3346,7 +3402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="3" t="s">
         <v>128</v>
@@ -3378,27 +3434,27 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3415,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
         <v>193</v>
       </c>
@@ -3432,7 +3488,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>207</v>
       </c>
@@ -3449,7 +3505,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>194</v>
       </c>
@@ -3466,7 +3522,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>195</v>
       </c>
@@ -3483,7 +3539,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>202</v>
       </c>
@@ -3500,7 +3556,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>196</v>
       </c>
